--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\xlgs-pie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A5EB9B-C5BA-43CF-90A4-C3497B8E578A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD58CC2A-6672-43F7-AF81-520F024819DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Part</t>
   </si>
@@ -37,9 +48,6 @@
   </si>
   <si>
     <t>Decent</t>
-  </si>
-  <si>
-    <t>Make sure the code works</t>
   </si>
   <si>
     <t>Good!</t>
@@ -390,7 +398,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -414,7 +422,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -425,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -436,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -447,10 +455,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -458,10 +466,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
